--- a/notebook/manuscript/deerMovement_contributors_table_tenzing_filled.xlsx
+++ b/notebook/manuscript/deerMovement_contributors_table_tenzing_filled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/benjamin_marshall_glasgow_ac_uk/Documents/DeerMovementManuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EBF398-BA68-47F0-B829-1805510D3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6384D4CF-9AF8-43AB-B122-520FC584D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Order in publication</t>
   </si>
@@ -382,7 +382,7 @@
     <t>Gilbert</t>
   </si>
   <si>
-    <t>https://orcid.org/0000-0002-9139-8450</t>
+    <t>0000-0002-9139-8450</t>
   </si>
   <si>
     <t>lucy.gilbert@glasgow.ac.uk</t>
@@ -407,7 +407,7 @@
 </t>
   </si>
   <si>
-    <t>https://orcid.org/0000-0002-0600-0912</t>
+    <t>0000-0002-0600-0912</t>
   </si>
   <si>
     <t>mark.greener@ukhsa.gov.uk</t>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>Gill</t>
+  </si>
+  <si>
+    <t>Forest Research, Alice Holt Lodge, Farnham, UK</t>
+  </si>
+  <si>
+    <t>patocortacorriente@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Millcroft Veterinary Group, Cockermouth, Cumbria, CA13 0HR, UK</t>
+  </si>
+  <si>
+    <t>johnaboyle@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -522,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -574,6 +592,9 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1311,8 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1459,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="52.9">
+    <row r="3" spans="1:26" ht="48">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1485,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="12" t="b">
         <v>1</v>
@@ -1533,9 +1554,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="66">
+    <row r="4" spans="1:26" ht="60">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>39</v>
@@ -1557,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="12" t="b">
         <v>1</v>
@@ -1581,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="12" t="b">
         <v>1</v>
@@ -1592,7 +1613,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="15" t="s">
         <v>42</v>
       </c>
       <c r="X4" s="11" t="s">
@@ -1605,9 +1626,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="60">
+    <row r="5" spans="1:26" ht="48">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>44</v>
@@ -1664,7 +1685,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="X5" s="11" t="s">
@@ -1677,7 +1698,7 @@
     </row>
     <row r="6" spans="1:26" ht="48">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>48</v>
@@ -1743,7 +1764,7 @@
     </row>
     <row r="7" spans="1:26" ht="60">
       <c r="A7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>50</v>
@@ -1802,7 +1823,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="15" t="s">
         <v>54</v>
       </c>
       <c r="X7" s="11" t="s">
@@ -1815,9 +1836,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75">
+    <row r="8" spans="1:26" ht="36">
       <c r="A8" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>57</v>
@@ -1868,22 +1889,32 @@
       <c r="R8" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="6"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Y8" s="12" t="b">
         <v>0</v>
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:26" ht="36">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
@@ -1897,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="12" t="b">
         <v>0</v>
@@ -1924,20 +1955,26 @@
         <v>0</v>
       </c>
       <c r="R9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="6"/>
       <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="X9" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="Y9" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="Z9" s="7"/>
+      <c r="Z9" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="13.15">
+    <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1997,7 +2034,7 @@
       </c>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="13.15">
+    <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -2057,7 +2094,7 @@
       </c>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="13.15">
+    <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -2117,7 +2154,7 @@
       </c>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="13.15">
+    <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -2177,7 +2214,7 @@
       </c>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="13.15">
+    <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -2237,7 +2274,7 @@
       </c>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="13.15">
+    <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -2301,18 +2338,17 @@
   <hyperlinks>
     <hyperlink ref="X2" r:id="rId1" xr:uid="{6EC482EA-2AAA-4B21-9410-88CFF6955797}"/>
     <hyperlink ref="X3" r:id="rId2" xr:uid="{E64593B9-E003-4179-A0C7-85772E548A98}"/>
-    <hyperlink ref="X4" r:id="rId3" xr:uid="{3DD28594-509E-49C1-BC01-976D3306AF82}"/>
-    <hyperlink ref="W4" r:id="rId4" display="https://orcid.org/0000-0002-2006-092X" xr:uid="{DAF76EAD-3DF8-4D08-A019-9C08D24359B6}"/>
-    <hyperlink ref="X5" r:id="rId5" xr:uid="{F1AA3331-A618-4065-B38A-F0B2C0378A53}"/>
-    <hyperlink ref="W5" r:id="rId6" xr:uid="{3AD716E0-62BC-497F-AD0F-BE5BC9DEE432}"/>
-    <hyperlink ref="X7" r:id="rId7" xr:uid="{3F7A4A1C-D949-414D-8D6D-4A19C645EE24}"/>
-    <hyperlink ref="W7" r:id="rId8" xr:uid="{BE9DBE1A-9AC9-4DB7-ACD1-E14F8509E0A7}"/>
+    <hyperlink ref="X5" r:id="rId3" xr:uid="{F1AA3331-A618-4065-B38A-F0B2C0378A53}"/>
+    <hyperlink ref="X7" r:id="rId4" xr:uid="{3F7A4A1C-D949-414D-8D6D-4A19C645EE24}"/>
+    <hyperlink ref="X9" r:id="rId5" xr:uid="{63A45820-4EB5-45CC-80C3-60871A507D6F}"/>
+    <hyperlink ref="X8" r:id="rId6" xr:uid="{41CB7EE0-01E9-49D9-96C1-B630A0908BA6}"/>
+    <hyperlink ref="X4" r:id="rId7" xr:uid="{3DD28594-509E-49C1-BC01-976D3306AF82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/notebook/manuscript/deerMovement_contributors_table_tenzing_filled.xlsx
+++ b/notebook/manuscript/deerMovement_contributors_table_tenzing_filled.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/benjamin_marshall_glasgow_ac_uk/Documents/DeerMovementManuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\TICKSOLVE_DeerMovement\notebook\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6384D4CF-9AF8-43AB-B122-520FC584D4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8FEA22-E006-4747-8929-012652C61D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="705" windowWidth="20970" windowHeight="19830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -242,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Order in publication</t>
   </si>
@@ -438,6 +427,9 @@
   </si>
   <si>
     <t>johnaboyle@hotmail.com</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -594,7 +586,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1311,8 +1303,8 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:Z15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1480,7 +1472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="48">
+    <row r="3" spans="1:26" ht="51">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1554,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="60">
+    <row r="4" spans="1:26" ht="63.75">
       <c r="A4" s="6">
         <v>7</v>
       </c>
@@ -1626,7 +1618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="48">
+    <row r="5" spans="1:26" ht="51">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1696,14 +1688,16 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="48">
+    <row r="6" spans="1:26" ht="51">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1756,7 @@
       </c>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="60">
+    <row r="7" spans="1:26" ht="63.75">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="36">
+    <row r="8" spans="1:26" ht="38.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1904,7 +1898,7 @@
       </c>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="36">
+    <row r="9" spans="1:26" ht="38.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
